--- a/data_group/kendall_test_prec_results.xlsx
+++ b/data_group/kendall_test_prec_results.xlsx
@@ -391,10 +391,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.1523594889352919</v>
+        <v>-0.187791928222569</v>
       </c>
       <c r="D2">
-        <v>0.07754074167277929</v>
+        <v>0.02958263959301527</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.2043270665566317</v>
+        <v>-0.2216495924304117</v>
       </c>
       <c r="D3">
-        <v>0.01792328069347479</v>
+        <v>0.01023206050101878</v>
       </c>
     </row>
     <row r="4">
@@ -427,10 +427,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.2279486927481498</v>
+        <v>-0.2468459937013643</v>
       </c>
       <c r="D4">
-        <v>0.008269493158224152</v>
+        <v>0.004239141078934238</v>
       </c>
     </row>
     <row r="5">
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>-0.2279486927481498</v>
+        <v>-0.246058606161647</v>
       </c>
       <c r="D5">
-        <v>0.008269493158224152</v>
+        <v>0.004362674613102749</v>
       </c>
     </row>
     <row r="6">
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.2389721183041916</v>
+        <v>-0.2436964435424952</v>
       </c>
       <c r="D6">
-        <v>0.005630218579236189</v>
+        <v>0.004753103337850524</v>
       </c>
     </row>
     <row r="7">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>-0.4137721521214257</v>
+        <v>-0.4783379303782418</v>
       </c>
       <c r="D12">
-        <v>1.637391888565759E-06</v>
+        <v>2.99533405758477E-08</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>-0.4098352144228393</v>
+        <v>-0.4925109060931527</v>
       </c>
       <c r="D13">
-        <v>2.053550575378805E-06</v>
+        <v>1.157244869716377E-08</v>
       </c>
     </row>
     <row r="14">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>-0.4035361141051012</v>
+        <v>-0.4838496431562628</v>
       </c>
       <c r="D14">
-        <v>2.938039927925609E-06</v>
+        <v>2.075775319976082E-08</v>
       </c>
     </row>
     <row r="15">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>-0.4019613390256666</v>
+        <v>-0.4570784668058755</v>
       </c>
       <c r="D15">
-        <v>3.210683394903646E-06</v>
+        <v>1.187489974753754E-07</v>
       </c>
     </row>
     <row r="16">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>-0.3862135882313212</v>
+        <v>-0.4043235016448185</v>
       </c>
       <c r="D16">
-        <v>7.662005473581033E-06</v>
+        <v>2.810189270028278E-06</v>
       </c>
     </row>
     <row r="17">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>-0.04921172123232941</v>
+        <v>-0.2224369799701289</v>
       </c>
       <c r="D22">
-        <v>0.5685863458614222</v>
+        <v>0.009965940908658134</v>
       </c>
     </row>
     <row r="23">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>-0.1177144371877319</v>
+        <v>-0.2192874298112598</v>
       </c>
       <c r="D23">
-        <v>0.1726424247380373</v>
+        <v>0.01106877012423822</v>
       </c>
     </row>
     <row r="24">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>-0.16731985218992</v>
+        <v>-0.2216495924304117</v>
       </c>
       <c r="D24">
-        <v>0.05256737526552121</v>
+        <v>0.01023206050101878</v>
       </c>
     </row>
     <row r="25">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>-0.1948784160800245</v>
+        <v>-0.2310982429070189</v>
       </c>
       <c r="D25">
-        <v>0.02396228642597506</v>
+        <v>0.007420651327463715</v>
       </c>
     </row>
     <row r="26">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>-0.205114454096349</v>
+        <v>-0.2153504921126735</v>
       </c>
       <c r="D26">
-        <v>0.01748622417335425</v>
+        <v>0.01259892874015024</v>
       </c>
     </row>
     <row r="27">
